--- a/Tag_Builder/Input/SCADA_TAGS.xlsx
+++ b/Tag_Builder/Input/SCADA_TAGS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F185846B-A3E6-D848-8467-16EC26008D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E3C358-5023-D644-92E8-C28F196EE652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="500" windowWidth="17080" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51400" yWindow="500" windowWidth="24360" windowHeight="19820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IDH" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21723" uniqueCount="2210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21726" uniqueCount="2211">
   <si>
     <t>[BLOCK TYPE</t>
   </si>
@@ -6632,9 +6632,6 @@
     <t>IR111</t>
   </si>
   <si>
-    <t>DM411</t>
-  </si>
-  <si>
     <t>IR112</t>
   </si>
   <si>
@@ -6648,6 +6645,12 @@
   </si>
   <si>
     <t>DM510</t>
+  </si>
+  <si>
+    <t>New_Address</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -6701,7 +6704,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -6772,35 +6781,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3247C6DC-223E-A348-97FD-D1CDBB6A2B97}" name="Table1" displayName="Table1" ref="A1:G297" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:G297" xr:uid="{3247C6DC-223E-A348-97FD-D1CDBB6A2B97}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{37113169-19DD-AA4B-808E-1AA6B2C48B10}" name="Type" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{B6EBA282-F8B0-6746-8952-B2216910D340}" name="TAG" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{3CF6B033-FF0B-664B-A4CD-4FCB70CF89CC}" name="NEXT BLK" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{0B4E7010-94B7-E544-8073-C942C9FEBD3D}" name="DESCRIPTION" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{98852D7F-957C-5C4E-96B8-BA0418CA0B40}" name="Full Address" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{7662D4FD-AA70-C64E-AEED-F5F23763383D}" name="Clean_Address_BCD" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{D28F73D7-5A82-FC43-AB09-FCF76AD9E53D}" name="Clean_Address" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3247C6DC-223E-A348-97FD-D1CDBB6A2B97}" name="Table1" displayName="Table1" ref="A1:H297" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:H297" xr:uid="{3247C6DC-223E-A348-97FD-D1CDBB6A2B97}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{37113169-19DD-AA4B-808E-1AA6B2C48B10}" name="Type" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{B6EBA282-F8B0-6746-8952-B2216910D340}" name="TAG" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{3CF6B033-FF0B-664B-A4CD-4FCB70CF89CC}" name="NEXT BLK" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{0B4E7010-94B7-E544-8073-C942C9FEBD3D}" name="DESCRIPTION" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{98852D7F-957C-5C4E-96B8-BA0418CA0B40}" name="Full Address" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{7662D4FD-AA70-C64E-AEED-F5F23763383D}" name="Clean_Address_BCD" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{D28F73D7-5A82-FC43-AB09-FCF76AD9E53D}" name="Clean_Address" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{58AD2E1C-79BD-B346-BE3E-51AEDB046035}" name="New_Address" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8998A05B-2A2C-624A-BA23-A1CAF529A8D5}" name="Table2" displayName="Table2" ref="A1:G211" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G211" xr:uid="{8998A05B-2A2C-624A-BA23-A1CAF529A8D5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8998A05B-2A2C-624A-BA23-A1CAF529A8D5}" name="Table2" displayName="Table2" ref="A1:H211" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:H211" xr:uid="{8998A05B-2A2C-624A-BA23-A1CAF529A8D5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G211">
     <sortCondition ref="G1:G211"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{1ED72638-1FC7-4C44-AB38-58B91840E8A0}" name="Type" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{337EB105-1426-C645-BB0A-E4753BBE7682}" name="TAG" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{4E9D2C31-EDDD-C64C-BFB5-1D5F13955863}" name="NEXT BLK" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{B0D0C8B0-957A-E34C-9299-EC78C12A8D74}" name="DESCRIPTION" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{0080EC75-5246-EF41-AD71-EB65AEC8D029}" name="Full Address" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{25C233D7-6627-AB41-A589-26253C52FB0B}" name="Clean_Address_BCD" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{148B53D2-FF41-4849-9857-8C0EB9091A8D}" name="Clean_Address" dataDxfId="0"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{1ED72638-1FC7-4C44-AB38-58B91840E8A0}" name="Type" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{337EB105-1426-C645-BB0A-E4753BBE7682}" name="TAG" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{4E9D2C31-EDDD-C64C-BFB5-1D5F13955863}" name="NEXT BLK" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{B0D0C8B0-957A-E34C-9299-EC78C12A8D74}" name="DESCRIPTION" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{0080EC75-5246-EF41-AD71-EB65AEC8D029}" name="Full Address" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{25C233D7-6627-AB41-A589-26253C52FB0B}" name="Clean_Address_BCD" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{148B53D2-FF41-4849-9857-8C0EB9091A8D}" name="Clean_Address" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{C34F215C-8E3B-6D47-897B-AB6CD6C9CBA9}" name="New_Address" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -53798,8 +53809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB84D61-5F99-9F49-A52E-1F5039ED1CBF}">
   <dimension ref="A1:DB297"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187"/>
+    <sheetView topLeftCell="C1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -53927,6 +53938,9 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>1810</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2209</v>
       </c>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.2">
@@ -92864,8 +92878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D156082-C62D-FA48-B103-C7B6A124D982}">
   <dimension ref="A1:DF211"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E173" sqref="E173"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -93000,6 +93014,9 @@
       <c r="G1" s="1" t="s">
         <v>1810</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>2209</v>
+      </c>
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -93018,7 +93035,10 @@
         <v>2035</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>2204</v>
+        <v>1885</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2210</v>
       </c>
       <c r="M2" s="2"/>
       <c r="AY2" s="2"/>
@@ -93099,7 +93119,7 @@
         <v>2165</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="M5" s="2"/>
       <c r="AY5" s="2"/>
@@ -93125,7 +93145,7 @@
         <v>2162</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="M6" s="2"/>
       <c r="T6" s="2"/>
@@ -93153,7 +93173,7 @@
         <v>2167</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="AY7" s="2"/>
       <c r="AZ7" s="2"/>
@@ -93177,7 +93197,7 @@
         <v>2167</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="M8" s="2"/>
       <c r="T8" s="2"/>
@@ -93300,7 +93320,7 @@
         <v>2168</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="M13" s="3"/>
       <c r="T13" s="3"/>
@@ -94024,7 +94044,7 @@
         <v>2159</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="AS43" s="2"/>
       <c r="AT43" s="2"/>

--- a/Tag_Builder/Input/SCADA_TAGS.xlsx
+++ b/Tag_Builder/Input/SCADA_TAGS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E3C358-5023-D644-92E8-C28F196EE652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C4C2FF-893A-B245-A080-B77A1AB0A979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51400" yWindow="500" windowWidth="24360" windowHeight="19820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47020" yWindow="500" windowWidth="28740" windowHeight="19820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IDH" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21726" uniqueCount="2211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21725" uniqueCount="2211">
   <si>
     <t>[BLOCK TYPE</t>
   </si>
@@ -6650,7 +6650,7 @@
     <t>New_Address</t>
   </si>
   <si>
-    <t>a</t>
+    <t>DM411</t>
   </si>
 </sst>
 </file>
@@ -6791,27 +6791,27 @@
     <tableColumn id="5" xr3:uid="{98852D7F-957C-5C4E-96B8-BA0418CA0B40}" name="Full Address" dataDxfId="13"/>
     <tableColumn id="6" xr3:uid="{7662D4FD-AA70-C64E-AEED-F5F23763383D}" name="Clean_Address_BCD" dataDxfId="12"/>
     <tableColumn id="7" xr3:uid="{D28F73D7-5A82-FC43-AB09-FCF76AD9E53D}" name="Clean_Address" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{58AD2E1C-79BD-B346-BE3E-51AEDB046035}" name="New_Address" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{58AD2E1C-79BD-B346-BE3E-51AEDB046035}" name="New_Address" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8998A05B-2A2C-624A-BA23-A1CAF529A8D5}" name="Table2" displayName="Table2" ref="A1:H211" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8998A05B-2A2C-624A-BA23-A1CAF529A8D5}" name="Table2" displayName="Table2" ref="A1:H211" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H211" xr:uid="{8998A05B-2A2C-624A-BA23-A1CAF529A8D5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G211">
     <sortCondition ref="G1:G211"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1ED72638-1FC7-4C44-AB38-58B91840E8A0}" name="Type" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{337EB105-1426-C645-BB0A-E4753BBE7682}" name="TAG" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{4E9D2C31-EDDD-C64C-BFB5-1D5F13955863}" name="NEXT BLK" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{B0D0C8B0-957A-E34C-9299-EC78C12A8D74}" name="DESCRIPTION" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{0080EC75-5246-EF41-AD71-EB65AEC8D029}" name="Full Address" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{25C233D7-6627-AB41-A589-26253C52FB0B}" name="Clean_Address_BCD" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{148B53D2-FF41-4849-9857-8C0EB9091A8D}" name="Clean_Address" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{C34F215C-8E3B-6D47-897B-AB6CD6C9CBA9}" name="New_Address" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1ED72638-1FC7-4C44-AB38-58B91840E8A0}" name="Type" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{337EB105-1426-C645-BB0A-E4753BBE7682}" name="TAG" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{4E9D2C31-EDDD-C64C-BFB5-1D5F13955863}" name="NEXT BLK" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{B0D0C8B0-957A-E34C-9299-EC78C12A8D74}" name="DESCRIPTION" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{0080EC75-5246-EF41-AD71-EB65AEC8D029}" name="Full Address" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{25C233D7-6627-AB41-A589-26253C52FB0B}" name="Clean_Address_BCD" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{148B53D2-FF41-4849-9857-8C0EB9091A8D}" name="Clean_Address" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{C34F215C-8E3B-6D47-897B-AB6CD6C9CBA9}" name="New_Address" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7106,9 +7106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:DK316"/>
   <sheetViews>
-    <sheetView topLeftCell="A234" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B244" sqref="B244"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -53809,8 +53807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB84D61-5F99-9F49-A52E-1F5039ED1CBF}">
   <dimension ref="A1:DB297"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -61080,8 +61078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DK230"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="A185" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F227" sqref="F227:F230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -61090,11 +61088,11 @@
     <col min="2" max="2" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" style="1" bestFit="1" customWidth="1"/>
@@ -92878,8 +92876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D156082-C62D-FA48-B103-C7B6A124D982}">
   <dimension ref="A1:DF211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -92887,7 +92885,7 @@
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -93023,22 +93021,19 @@
         <v>148</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1160</v>
+        <v>1106</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1161</v>
+        <v>150</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1162</v>
+        <v>1107</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2035</v>
+        <v>2021</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1885</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>2210</v>
+        <v>2021</v>
       </c>
       <c r="M2" s="2"/>
       <c r="AY2" s="2"/>
@@ -93052,19 +93047,19 @@
         <v>148</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1129</v>
+        <v>1108</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1130</v>
+        <v>1109</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1131</v>
+        <v>1110</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>2200</v>
+        <v>2022</v>
       </c>
       <c r="M3" s="2"/>
       <c r="T3" s="2"/>
@@ -93080,22 +93075,19 @@
         <v>148</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1157</v>
+        <v>1112</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1158</v>
+        <v>1113</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1159</v>
+        <v>1114</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>2034</v>
+        <v>2023</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="AY4" s="2"/>
       <c r="AZ4" s="2"/>
@@ -93104,22 +93096,22 @@
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>793</v>
+        <v>148</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1647</v>
+        <v>1116</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1648</v>
+        <v>150</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1649</v>
+        <v>1117</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>2165</v>
+        <v>2024</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>2206</v>
+        <v>2036</v>
       </c>
       <c r="M5" s="2"/>
       <c r="AY5" s="2"/>
@@ -93130,22 +93122,22 @@
     </row>
     <row r="6" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>793</v>
+        <v>148</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1632</v>
+        <v>1118</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1633</v>
+        <v>1119</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1634</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>2162</v>
+        <v>2025</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>2205</v>
+        <v>2036</v>
       </c>
       <c r="M6" s="2"/>
       <c r="T6" s="2"/>
@@ -93158,22 +93150,22 @@
     </row>
     <row r="7" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>793</v>
+        <v>148</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1656</v>
+        <v>1122</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1657</v>
+        <v>1123</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1658</v>
+        <v>1124</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>2167</v>
+        <v>2026</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>2207</v>
+        <v>2199</v>
       </c>
       <c r="AY7" s="2"/>
       <c r="AZ7" s="2"/>
@@ -93182,22 +93174,22 @@
     </row>
     <row r="8" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>793</v>
+        <v>148</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1665</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1633</v>
+        <v>1126</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1658</v>
+        <v>1127</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>2167</v>
+        <v>1875</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>2207</v>
+        <v>1875</v>
       </c>
       <c r="M8" s="2"/>
       <c r="T8" s="2"/>
@@ -93214,19 +93206,19 @@
         <v>148</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1116</v>
+        <v>1129</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>150</v>
+        <v>1130</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1117</v>
+        <v>1131</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>2036</v>
+        <v>2200</v>
       </c>
       <c r="AY9" s="2"/>
       <c r="AZ9" s="2"/>
@@ -93239,19 +93231,19 @@
         <v>148</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1118</v>
+        <v>1133</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1119</v>
+        <v>150</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1120</v>
+        <v>1134</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>2036</v>
+        <v>2201</v>
       </c>
       <c r="AY10" s="2"/>
       <c r="AZ10" s="2"/>
@@ -93260,19 +93252,22 @@
     </row>
     <row r="11" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>391</v>
+        <v>148</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1167</v>
+        <v>1135</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1136</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1168</v>
+        <v>1134</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>2036</v>
+        <v>2028</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>2036</v>
+        <v>2201</v>
       </c>
       <c r="AY11" s="2"/>
       <c r="AZ11" s="2"/>
@@ -93284,19 +93279,19 @@
         <v>148</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1122</v>
+        <v>1138</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1123</v>
+        <v>1139</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1124</v>
+        <v>1140</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>2199</v>
+        <v>2202</v>
       </c>
       <c r="AY12" s="2"/>
       <c r="AZ12" s="2"/>
@@ -93305,22 +93300,25 @@
     </row>
     <row r="13" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>793</v>
+        <v>148</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1661</v>
+        <v>1141</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1142</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1662</v>
+        <v>1143</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1663</v>
+        <v>1144</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>2168</v>
+        <v>2030</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>2208</v>
+        <v>2203</v>
       </c>
       <c r="M13" s="3"/>
       <c r="T13" s="3"/>
@@ -93336,19 +93334,19 @@
         <v>148</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1106</v>
+        <v>1146</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1107</v>
+        <v>1147</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="AY14" s="2"/>
       <c r="AZ14" s="2"/>
@@ -93357,19 +93355,22 @@
     </row>
     <row r="15" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>391</v>
+        <v>148</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1166</v>
+        <v>1148</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1149</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1107</v>
+        <v>1150</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>2021</v>
+        <v>2032</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="AY15" s="2"/>
       <c r="AZ15" s="2"/>
@@ -93381,19 +93382,19 @@
         <v>148</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1112</v>
+        <v>1152</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1113</v>
+        <v>1153</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1114</v>
+        <v>1154</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>2023</v>
+        <v>2033</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>2198</v>
+        <v>2033</v>
       </c>
       <c r="AY16" s="2"/>
       <c r="AZ16" s="2"/>
@@ -93405,19 +93406,22 @@
         <v>148</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1108</v>
+        <v>1156</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1157</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1109</v>
+        <v>1158</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1110</v>
+        <v>1159</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>2022</v>
+        <v>2034</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>2022</v>
+        <v>2200</v>
       </c>
       <c r="AY17" s="2"/>
       <c r="AZ17" s="2"/>
@@ -93427,22 +93431,22 @@
     </row>
     <row r="18" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>793</v>
+        <v>148</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1623</v>
+        <v>1160</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1624</v>
+        <v>1161</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1625</v>
+        <v>1162</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>2160</v>
+        <v>2035</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="M18" s="2"/>
       <c r="T18" s="2"/>
@@ -93455,22 +93459,19 @@
     </row>
     <row r="19" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>793</v>
+        <v>391</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1136</v>
+        <v>1164</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1630</v>
+        <v>1150</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>2161</v>
+        <v>2032</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>2160</v>
+        <v>2031</v>
       </c>
       <c r="AS19" s="2"/>
       <c r="AT19" s="2"/>
@@ -93479,13 +93480,10 @@
     </row>
     <row r="20" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>148</v>
+        <v>391</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>150</v>
+        <v>1165</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>1134</v>
@@ -93503,22 +93501,19 @@
     </row>
     <row r="21" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>148</v>
+        <v>391</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1136</v>
+        <v>1166</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1134</v>
+        <v>1107</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>2201</v>
+        <v>2021</v>
       </c>
       <c r="J21" s="2"/>
       <c r="P21" s="2"/>
@@ -93533,16 +93528,16 @@
         <v>391</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1134</v>
+        <v>1168</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>2028</v>
+        <v>2036</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>2201</v>
+        <v>2036</v>
       </c>
       <c r="J22" s="2"/>
       <c r="P22" s="2"/>
@@ -93554,22 +93549,22 @@
     </row>
     <row r="23" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>148</v>
+        <v>464</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1138</v>
+        <v>1169</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1139</v>
+        <v>1170</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1140</v>
+        <v>1171</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>2029</v>
+        <v>2037</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>2202</v>
+        <v>2037</v>
       </c>
       <c r="AS23" s="2"/>
       <c r="AT23" s="2"/>
@@ -93577,25 +93572,22 @@
     </row>
     <row r="24" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>793</v>
+        <v>464</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1637</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>1638</v>
+        <v>1173</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1639</v>
+        <v>1174</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1640</v>
+        <v>1175</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>2163</v>
+        <v>2038</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>2164</v>
+        <v>2038</v>
       </c>
       <c r="AS24" s="2"/>
       <c r="AT24" s="2"/>
@@ -93603,22 +93595,22 @@
     </row>
     <row r="25" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>793</v>
+        <v>464</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1641</v>
+        <v>1176</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1642</v>
+        <v>1177</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1643</v>
+        <v>1178</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>2164</v>
+        <v>2039</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>2164</v>
+        <v>2039</v>
       </c>
       <c r="AS25" s="2"/>
       <c r="AT25" s="2"/>
@@ -93626,25 +93618,22 @@
     </row>
     <row r="26" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>793</v>
+        <v>464</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1646</v>
+        <v>1179</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1644</v>
+        <v>1180</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1643</v>
+        <v>1181</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>2164</v>
+        <v>2040</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>2164</v>
+        <v>2040</v>
       </c>
       <c r="AS26" s="2"/>
       <c r="AT26" s="2"/>
@@ -93652,22 +93641,22 @@
     </row>
     <row r="27" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>148</v>
+        <v>464</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1146</v>
+        <v>1182</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>150</v>
+        <v>1174</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1147</v>
+        <v>1183</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>2031</v>
+        <v>2041</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>2031</v>
+        <v>2041</v>
       </c>
       <c r="AS27" s="2"/>
       <c r="AT27" s="2"/>
@@ -93675,22 +93664,22 @@
     </row>
     <row r="28" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>148</v>
+        <v>464</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1148</v>
+        <v>1184</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1149</v>
+        <v>1185</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1150</v>
+        <v>1186</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>2032</v>
+        <v>2042</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>2031</v>
+        <v>2042</v>
       </c>
       <c r="AS28" s="2"/>
       <c r="AT28" s="2"/>
@@ -93698,19 +93687,22 @@
     </row>
     <row r="29" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>391</v>
+        <v>464</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1164</v>
+        <v>1187</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1188</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1150</v>
+        <v>1189</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>2032</v>
+        <v>2043</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>2031</v>
+        <v>2043</v>
       </c>
       <c r="AS29" s="2"/>
       <c r="AT29" s="2"/>
@@ -93718,22 +93710,22 @@
     </row>
     <row r="30" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>148</v>
+        <v>464</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1152</v>
+        <v>1190</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1153</v>
+        <v>1177</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1154</v>
+        <v>1191</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>2033</v>
+        <v>2044</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>2033</v>
+        <v>2044</v>
       </c>
       <c r="AS30" s="2"/>
       <c r="AT30" s="2"/>
@@ -93741,22 +93733,22 @@
     </row>
     <row r="31" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>793</v>
+        <v>464</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1594</v>
+        <v>1192</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1595</v>
+        <v>1177</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1596</v>
+        <v>1193</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>2156</v>
+        <v>2045</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>2156</v>
+        <v>2045</v>
       </c>
       <c r="AS31" s="2"/>
       <c r="AT31" s="2"/>
@@ -93764,22 +93756,22 @@
     </row>
     <row r="32" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>793</v>
+        <v>464</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1589</v>
+        <v>1194</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1590</v>
+        <v>1170</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1591</v>
+        <v>1195</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>2155</v>
+        <v>2046</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>2155</v>
+        <v>2046</v>
       </c>
       <c r="AS32" s="2"/>
       <c r="AT32" s="2"/>
@@ -93787,22 +93779,22 @@
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>148</v>
+        <v>464</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>419</v>
+        <v>1196</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1197</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1127</v>
+        <v>1198</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1875</v>
+        <v>2047</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1875</v>
+        <v>2047</v>
       </c>
       <c r="AS33" s="2"/>
       <c r="AT33" s="2"/>
@@ -93810,22 +93802,22 @@
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>1002</v>
+        <v>464</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1768</v>
+        <v>1199</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1769</v>
+        <v>1200</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1770</v>
+        <v>1201</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>2194</v>
+        <v>2048</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>2194</v>
+        <v>2048</v>
       </c>
       <c r="AS34" s="2"/>
       <c r="AT34" s="2"/>
@@ -93836,16 +93828,19 @@
         <v>464</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1430</v>
+        <v>1202</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1174</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1431</v>
+        <v>1203</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1885</v>
+        <v>2049</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1885</v>
+        <v>2049</v>
       </c>
       <c r="AS35" s="2"/>
       <c r="AT35" s="2"/>
@@ -93856,19 +93851,19 @@
         <v>464</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>1261</v>
+        <v>1204</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1174</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1262</v>
+        <v>1205</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>2070</v>
+        <v>2050</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>2070</v>
+        <v>2050</v>
       </c>
       <c r="AS36" s="2"/>
       <c r="AT36" s="2"/>
@@ -93876,22 +93871,22 @@
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>793</v>
+        <v>464</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1651</v>
+        <v>1206</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1652</v>
+        <v>1207</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1653</v>
+        <v>1208</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>2166</v>
+        <v>2051</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1879</v>
+        <v>2051</v>
       </c>
       <c r="AS37" s="2"/>
       <c r="AT37" s="2"/>
@@ -93899,22 +93894,22 @@
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>793</v>
+        <v>464</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1667</v>
+        <v>1209</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1648</v>
+        <v>1210</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1653</v>
+        <v>1211</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>2166</v>
+        <v>2052</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1879</v>
+        <v>2052</v>
       </c>
       <c r="AS38" s="2"/>
       <c r="AT38" s="2"/>
@@ -93922,25 +93917,22 @@
     </row>
     <row r="39" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>793</v>
+        <v>464</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>1602</v>
+        <v>1212</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1603</v>
+        <v>1213</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1604</v>
+        <v>1214</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>2157</v>
+        <v>2053</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>1878</v>
+        <v>2053</v>
       </c>
       <c r="AS39" s="2"/>
       <c r="AT39" s="2"/>
@@ -93948,25 +93940,22 @@
     </row>
     <row r="40" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>793</v>
+        <v>464</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>1580</v>
+        <v>1215</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1581</v>
+        <v>1216</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1582</v>
+        <v>1217</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1874</v>
+        <v>2054</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1874</v>
+        <v>2054</v>
       </c>
       <c r="AS40" s="2"/>
       <c r="AT40" s="2"/>
@@ -93974,25 +93963,22 @@
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>793</v>
+        <v>464</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1612</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>1613</v>
+        <v>1218</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1614</v>
+        <v>1219</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1615</v>
+        <v>1220</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1877</v>
+        <v>2055</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1877</v>
+        <v>2055</v>
       </c>
       <c r="AS41" s="2"/>
       <c r="AT41" s="2"/>
@@ -94000,25 +93986,22 @@
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>148</v>
+        <v>464</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1142</v>
+        <v>1221</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1143</v>
+        <v>1222</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1144</v>
+        <v>1223</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>2030</v>
+        <v>2056</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>2203</v>
+        <v>2056</v>
       </c>
       <c r="AS42" s="2"/>
       <c r="AT42" s="2"/>
@@ -94026,25 +94009,22 @@
     </row>
     <row r="43" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>793</v>
+        <v>464</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1617</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>1618</v>
+        <v>1224</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1619</v>
+        <v>1174</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1620</v>
+        <v>1225</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>2159</v>
+        <v>2057</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>2204</v>
+        <v>2057</v>
       </c>
       <c r="AS43" s="2"/>
       <c r="AT43" s="2"/>
@@ -94052,22 +94032,22 @@
     </row>
     <row r="44" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>793</v>
+        <v>464</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1607</v>
+        <v>1226</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1608</v>
+        <v>1227</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1609</v>
+        <v>1228</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>2158</v>
+        <v>2058</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>2158</v>
+        <v>2058</v>
       </c>
       <c r="AS44" s="2"/>
       <c r="AT44" s="2"/>
@@ -94075,22 +94055,22 @@
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>793</v>
+        <v>464</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1584</v>
+        <v>1229</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1585</v>
+        <v>1230</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1586</v>
+        <v>1231</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>2154</v>
+        <v>2059</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>2154</v>
+        <v>2059</v>
       </c>
       <c r="AS45" s="2"/>
       <c r="AT45" s="2"/>
@@ -94098,25 +94078,22 @@
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>793</v>
+        <v>464</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1597</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>1598</v>
+        <v>1233</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1599</v>
+        <v>1177</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1586</v>
+        <v>1234</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>2154</v>
+        <v>2060</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>2154</v>
+        <v>2060</v>
       </c>
       <c r="AS46" s="2"/>
       <c r="AT46" s="2"/>
@@ -94124,22 +94101,22 @@
     </row>
     <row r="47" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>1002</v>
+        <v>464</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1714</v>
+        <v>1235</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1715</v>
+        <v>1174</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1716</v>
+        <v>1236</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>2181</v>
+        <v>2061</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>2181</v>
+        <v>2061</v>
       </c>
       <c r="AS47" s="2"/>
       <c r="AT47" s="2"/>
@@ -94150,22 +94127,19 @@
         <v>464</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1440</v>
+        <v>1237</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1441</v>
+        <v>1238</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1442</v>
+        <v>1239</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>2113</v>
+        <v>2062</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>2113</v>
+        <v>2062</v>
       </c>
       <c r="AS48" s="2"/>
       <c r="AT48" s="2"/>
@@ -94173,22 +94147,22 @@
     </row>
     <row r="49" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>1002</v>
+        <v>464</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1732</v>
+        <v>1240</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1733</v>
+        <v>1241</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1734</v>
+        <v>1242</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>2186</v>
+        <v>2063</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>2186</v>
+        <v>2063</v>
       </c>
       <c r="AS49" s="2"/>
       <c r="AT49" s="2"/>
@@ -94196,22 +94170,22 @@
     </row>
     <row r="50" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>1002</v>
+        <v>464</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1750</v>
+        <v>1243</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1751</v>
+        <v>1244</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1752</v>
+        <v>1245</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>2190</v>
+        <v>2064</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>2190</v>
+        <v>2064</v>
       </c>
       <c r="AS50" s="2"/>
       <c r="AT50" s="2"/>
@@ -94222,19 +94196,19 @@
         <v>464</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1323</v>
+        <v>1246</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1324</v>
+        <v>1247</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1325</v>
+        <v>1248</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>2086</v>
+        <v>2065</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>2086</v>
+        <v>2065</v>
       </c>
       <c r="AS51" s="2"/>
       <c r="AT51" s="2"/>
@@ -94245,19 +94219,16 @@
         <v>464</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>1267</v>
+        <v>1249</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1268</v>
+        <v>1250</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>2071</v>
+        <v>2066</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>2071</v>
+        <v>2066</v>
       </c>
       <c r="AS52" s="2"/>
       <c r="AT52" s="2"/>
@@ -94265,22 +94236,22 @@
     </row>
     <row r="53" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>1002</v>
+        <v>464</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1718</v>
+        <v>1252</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1719</v>
+        <v>1253</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1720</v>
+        <v>1254</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>2182</v>
+        <v>2067</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>2182</v>
+        <v>2067</v>
       </c>
       <c r="AS53" s="2"/>
       <c r="AT53" s="2"/>
@@ -94288,22 +94259,22 @@
     </row>
     <row r="54" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>1002</v>
+        <v>464</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1722</v>
+        <v>1255</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1723</v>
+        <v>1177</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1724</v>
+        <v>1256</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>2183</v>
+        <v>2068</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>2183</v>
+        <v>2068</v>
       </c>
       <c r="AS54" s="2"/>
       <c r="AT54" s="2"/>
@@ -94311,22 +94282,22 @@
     </row>
     <row r="55" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>1002</v>
+        <v>464</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1726</v>
+        <v>1257</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1727</v>
+        <v>1258</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1728</v>
+        <v>1259</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>2184</v>
+        <v>2069</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>2184</v>
+        <v>2069</v>
       </c>
       <c r="AS55" s="2"/>
       <c r="AT55" s="2"/>
@@ -94334,22 +94305,22 @@
     </row>
     <row r="56" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>1002</v>
+        <v>464</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1729</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>1730</v>
+        <v>1260</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1261</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1731</v>
+        <v>1262</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>2185</v>
+        <v>2070</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>2185</v>
+        <v>2070</v>
       </c>
       <c r="AS56" s="2"/>
       <c r="AT56" s="2"/>
@@ -94357,25 +94328,22 @@
     </row>
     <row r="57" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>1002</v>
+        <v>464</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1736</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>1737</v>
+        <v>1266</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1738</v>
+        <v>1267</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1739</v>
+        <v>1268</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>2187</v>
+        <v>2071</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>2187</v>
+        <v>2071</v>
       </c>
       <c r="AS57" s="2"/>
       <c r="AT57" s="2"/>
@@ -94387,16 +94355,16 @@
         <v>464</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1382</v>
+        <v>1269</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1383</v>
+        <v>1270</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>2098</v>
+        <v>2072</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>2098</v>
+        <v>2072</v>
       </c>
       <c r="AS58" s="2"/>
       <c r="AT58" s="2"/>
@@ -94405,25 +94373,19 @@
     </row>
     <row r="59" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>1002</v>
+        <v>464</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1740</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>1741</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>1742</v>
+        <v>1271</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1383</v>
+        <v>1272</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>2098</v>
+        <v>2073</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>2098</v>
+        <v>2073</v>
       </c>
       <c r="AS59" s="2"/>
       <c r="AT59" s="2"/>
@@ -94432,22 +94394,22 @@
     </row>
     <row r="60" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>1002</v>
+        <v>464</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1747</v>
+        <v>1273</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1748</v>
+        <v>1274</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1749</v>
+        <v>1275</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>2189</v>
+        <v>2074</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>2189</v>
+        <v>2074</v>
       </c>
       <c r="AS60" s="2"/>
       <c r="AT60" s="2"/>
@@ -94455,22 +94417,22 @@
     </row>
     <row r="61" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>1002</v>
+        <v>464</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1744</v>
+        <v>1276</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1745</v>
+        <v>1177</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1746</v>
+        <v>1277</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>2188</v>
+        <v>2075</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>2188</v>
+        <v>2075</v>
       </c>
       <c r="AS61" s="2"/>
       <c r="AT61" s="2"/>
@@ -94481,19 +94443,19 @@
         <v>464</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1552</v>
+        <v>1278</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1553</v>
+        <v>1279</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1554</v>
+        <v>1280</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>2145</v>
+        <v>2076</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>2145</v>
+        <v>2076</v>
       </c>
       <c r="AS62" s="2"/>
       <c r="AT62" s="2"/>
@@ -94504,19 +94466,19 @@
         <v>464</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1547</v>
+        <v>1281</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1548</v>
+        <v>1282</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1549</v>
+        <v>1283</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>2144</v>
+        <v>2077</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>2144</v>
+        <v>2077</v>
       </c>
       <c r="AS63" s="2"/>
       <c r="AT63" s="2"/>
@@ -94524,22 +94486,22 @@
     </row>
     <row r="64" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>663</v>
+        <v>464</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1566</v>
+        <v>1284</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1567</v>
+        <v>1285</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1568</v>
+        <v>1286</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>2149</v>
+        <v>2078</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>2149</v>
+        <v>2078</v>
       </c>
       <c r="AS64" s="2"/>
       <c r="AT64" s="2"/>
@@ -94547,22 +94509,19 @@
     </row>
     <row r="65" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>663</v>
+        <v>464</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>1564</v>
+        <v>1287</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1565</v>
+        <v>1288</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>2148</v>
+        <v>2079</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>2148</v>
+        <v>2079</v>
       </c>
       <c r="AS65" s="2"/>
       <c r="AT65" s="2"/>
@@ -94573,19 +94532,19 @@
         <v>464</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1555</v>
+        <v>1290</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1556</v>
+        <v>1291</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1557</v>
+        <v>1292</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>2146</v>
+        <v>2080</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>2146</v>
+        <v>2080</v>
       </c>
       <c r="AS66" s="2"/>
       <c r="AT66" s="2"/>
@@ -94593,19 +94552,19 @@
     </row>
     <row r="67" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>663</v>
+        <v>464</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1569</v>
+        <v>1293</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1557</v>
+        <v>1294</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>2146</v>
+        <v>2081</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>2146</v>
+        <v>2081</v>
       </c>
       <c r="AS67" s="2"/>
       <c r="AT67" s="2"/>
@@ -94613,22 +94572,22 @@
     </row>
     <row r="68" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>1002</v>
+        <v>464</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1680</v>
+        <v>1296</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1681</v>
+        <v>1297</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1682</v>
+        <v>1298</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>2172</v>
+        <v>2082</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>2172</v>
+        <v>2082</v>
       </c>
       <c r="AS68" s="2"/>
       <c r="AT68" s="2"/>
@@ -94636,22 +94595,19 @@
     </row>
     <row r="69" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>1002</v>
+        <v>464</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>1080</v>
+        <v>1299</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1772</v>
+        <v>1300</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1988</v>
+        <v>2083</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1988</v>
+        <v>2083</v>
       </c>
       <c r="AS69" s="2"/>
       <c r="AT69" s="2"/>
@@ -94659,22 +94615,22 @@
     </row>
     <row r="70" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>1002</v>
+        <v>464</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1774</v>
+        <v>1302</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1080</v>
+        <v>1303</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1772</v>
+        <v>1228</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1988</v>
+        <v>2058</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>1988</v>
+        <v>2058</v>
       </c>
       <c r="AS70" s="2"/>
       <c r="AT70" s="2"/>
@@ -94685,19 +94641,19 @@
         <v>464</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1544</v>
+        <v>1305</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1545</v>
+        <v>1306</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1546</v>
+        <v>1234</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>2143</v>
+        <v>2060</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>2143</v>
+        <v>2060</v>
       </c>
       <c r="AS71" s="2"/>
       <c r="AT71" s="2"/>
@@ -94708,19 +94664,19 @@
         <v>464</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1538</v>
+        <v>1308</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1539</v>
+        <v>1309</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1540</v>
+        <v>1310</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>2141</v>
+        <v>2084</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>2141</v>
+        <v>2084</v>
       </c>
       <c r="AS72" s="2"/>
       <c r="AT72" s="2"/>
@@ -94731,19 +94687,19 @@
         <v>464</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1541</v>
+        <v>1312</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1542</v>
+        <v>1313</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1543</v>
+        <v>1314</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>2142</v>
+        <v>2085</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>2142</v>
+        <v>2085</v>
       </c>
       <c r="AS73" s="2"/>
       <c r="AT73" s="2"/>
@@ -94751,19 +94707,22 @@
     </row>
     <row r="74" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>1002</v>
+        <v>464</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1778</v>
+        <v>1316</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>1317</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1779</v>
+        <v>1298</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>2196</v>
+        <v>2082</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>2196</v>
+        <v>2082</v>
       </c>
       <c r="AS74" s="2"/>
       <c r="AT74" s="2"/>
@@ -94771,22 +94730,22 @@
     </row>
     <row r="75" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>1002</v>
+        <v>464</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1764</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>1765</v>
+        <v>1319</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1320</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1766</v>
+        <v>1228</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>2193</v>
+        <v>2058</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>2193</v>
+        <v>2058</v>
       </c>
       <c r="AS75" s="2"/>
       <c r="AT75" s="2"/>
@@ -94797,16 +94756,19 @@
         <v>464</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1476</v>
+        <v>1323</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>1324</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1477</v>
+        <v>1325</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>2123</v>
+        <v>2086</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>2123</v>
+        <v>2086</v>
       </c>
       <c r="AS76" s="2"/>
       <c r="AT76" s="2"/>
@@ -94817,19 +94779,22 @@
         <v>464</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1509</v>
+        <v>1326</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>1327</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1505</v>
+        <v>1328</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1510</v>
+        <v>1228</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>2131</v>
+        <v>2058</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>2131</v>
+        <v>2058</v>
       </c>
       <c r="AS77" s="2"/>
       <c r="AT77" s="2"/>
@@ -94840,16 +94805,16 @@
         <v>464</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1473</v>
+        <v>1329</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1474</v>
+        <v>1236</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>2122</v>
+        <v>2061</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>2122</v>
+        <v>2061</v>
       </c>
       <c r="AS78" s="2"/>
       <c r="AT78" s="2"/>
@@ -94860,19 +94825,16 @@
         <v>464</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>1512</v>
+        <v>1332</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1513</v>
+        <v>1333</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>2132</v>
+        <v>2087</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>2132</v>
+        <v>2087</v>
       </c>
       <c r="AS79" s="2"/>
       <c r="AT79" s="2"/>
@@ -94883,16 +94845,19 @@
         <v>464</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1515</v>
+        <v>1336</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>1337</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1516</v>
+        <v>1338</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>2133</v>
+        <v>2088</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>2133</v>
+        <v>2088</v>
       </c>
       <c r="AS80" s="2"/>
       <c r="AT80" s="2"/>
@@ -94903,16 +94868,19 @@
         <v>464</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1518</v>
+        <v>1341</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1519</v>
+        <v>1343</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>2134</v>
+        <v>2089</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>2134</v>
+        <v>2089</v>
       </c>
       <c r="AS81" s="2"/>
       <c r="AT81" s="2"/>
@@ -94923,16 +94891,22 @@
         <v>464</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1521</v>
+        <v>1345</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>1347</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1522</v>
+        <v>1338</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>2135</v>
+        <v>2088</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>2135</v>
+        <v>2088</v>
       </c>
       <c r="AS82" s="2"/>
       <c r="AT82" s="2"/>
@@ -94943,16 +94917,22 @@
         <v>464</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1524</v>
+        <v>1349</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>1351</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1525</v>
+        <v>1352</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>2136</v>
+        <v>2090</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>2136</v>
+        <v>2090</v>
       </c>
       <c r="AS83" s="2"/>
       <c r="AT83" s="2"/>
@@ -94963,16 +94943,19 @@
         <v>464</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1528</v>
+        <v>1354</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1355</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1529</v>
+        <v>1356</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>2137</v>
+        <v>2091</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>2137</v>
+        <v>2091</v>
       </c>
       <c r="AS84" s="2"/>
       <c r="AT84" s="2"/>
@@ -94983,16 +94966,19 @@
         <v>464</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1479</v>
+        <v>1359</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>1360</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1480</v>
+        <v>1361</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>2124</v>
+        <v>2092</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>2124</v>
+        <v>2092</v>
       </c>
       <c r="AS85" s="2"/>
       <c r="AT85" s="2"/>
@@ -95003,16 +94989,19 @@
         <v>464</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1484</v>
+        <v>1362</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1363</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1485</v>
+        <v>1364</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>2125</v>
+        <v>2093</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>2125</v>
+        <v>2093</v>
       </c>
       <c r="AS86" s="2"/>
       <c r="AT86" s="2"/>
@@ -95023,16 +95012,19 @@
         <v>464</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1487</v>
+        <v>1366</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>1367</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1488</v>
+        <v>1310</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>2126</v>
+        <v>2084</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>2126</v>
+        <v>2084</v>
       </c>
       <c r="AS87" s="2"/>
       <c r="AT87" s="2"/>
@@ -95043,16 +95035,19 @@
         <v>464</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1490</v>
+        <v>1368</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>1369</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1491</v>
+        <v>1370</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>2127</v>
+        <v>2094</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>2127</v>
+        <v>2094</v>
       </c>
       <c r="AS88" s="2"/>
       <c r="AT88" s="2"/>
@@ -95063,16 +95058,19 @@
         <v>464</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1493</v>
+        <v>1372</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>1373</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1494</v>
+        <v>1374</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>2128</v>
+        <v>2095</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>2128</v>
+        <v>2095</v>
       </c>
       <c r="AS89" s="2"/>
       <c r="AT89" s="2"/>
@@ -95083,16 +95081,19 @@
         <v>464</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1497</v>
+        <v>1375</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1376</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1498</v>
+        <v>1377</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>2129</v>
+        <v>2096</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>2129</v>
+        <v>2096</v>
       </c>
       <c r="AS90" s="2"/>
       <c r="AT90" s="2"/>
@@ -95103,19 +95104,19 @@
         <v>464</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1504</v>
+        <v>1379</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1505</v>
+        <v>1380</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1506</v>
+        <v>1381</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>2130</v>
+        <v>2097</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>2130</v>
+        <v>2097</v>
       </c>
       <c r="AS91" s="2"/>
       <c r="AT91" s="2"/>
@@ -95126,19 +95127,16 @@
         <v>464</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>1313</v>
+        <v>1382</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1314</v>
+        <v>1383</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>2085</v>
+        <v>2098</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>2085</v>
+        <v>2098</v>
       </c>
       <c r="AS92" s="2"/>
       <c r="AT92" s="2"/>
@@ -95149,19 +95147,16 @@
         <v>464</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1451</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>1452</v>
+        <v>1387</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1314</v>
+        <v>1388</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>2085</v>
+        <v>2099</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>2085</v>
+        <v>2099</v>
       </c>
       <c r="AS93" s="2"/>
       <c r="AT93" s="2"/>
@@ -95172,19 +95167,19 @@
         <v>464</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1500</v>
+        <v>1390</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1501</v>
+        <v>1391</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1314</v>
+        <v>1352</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>2085</v>
+        <v>2090</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>2085</v>
+        <v>2090</v>
       </c>
       <c r="AS94" s="2"/>
       <c r="AT94" s="2"/>
@@ -95195,19 +95190,19 @@
         <v>464</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1433</v>
+        <v>1393</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1434</v>
+        <v>1394</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1435</v>
+        <v>1395</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>2111</v>
+        <v>2100</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>2111</v>
+        <v>2100</v>
       </c>
       <c r="AS95" s="2"/>
       <c r="AT95" s="2"/>
@@ -95218,19 +95213,19 @@
         <v>464</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>1177</v>
+        <v>1396</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>1397</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1429</v>
+        <v>1398</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>2110</v>
+        <v>2101</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>2110</v>
+        <v>2101</v>
       </c>
       <c r="AS96" s="2"/>
       <c r="AT96" s="2"/>
@@ -95241,19 +95236,19 @@
         <v>464</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1425</v>
+        <v>1400</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1426</v>
+        <v>1401</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1427</v>
+        <v>1402</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>2109</v>
+        <v>2102</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>2109</v>
+        <v>2102</v>
       </c>
       <c r="AS97" s="2"/>
       <c r="AT97" s="2"/>
@@ -95264,19 +95259,19 @@
         <v>464</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>1449</v>
+        <v>1403</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>1404</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1450</v>
+        <v>1405</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>2116</v>
+        <v>2103</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>2116</v>
+        <v>2103</v>
       </c>
       <c r="AS98" s="2"/>
       <c r="AT98" s="2"/>
@@ -95287,19 +95282,19 @@
         <v>464</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>1434</v>
+        <v>1407</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>1408</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1447</v>
+        <v>1409</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>2115</v>
+        <v>2104</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>2115</v>
+        <v>2104</v>
       </c>
       <c r="AS99" s="2"/>
       <c r="AT99" s="2"/>
@@ -95310,19 +95305,19 @@
         <v>464</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>1444</v>
+        <v>1411</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>1412</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1445</v>
+        <v>1413</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>2114</v>
+        <v>2105</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>2114</v>
+        <v>2105</v>
       </c>
       <c r="AS100" s="2"/>
       <c r="AT100" s="2"/>
@@ -95333,19 +95328,19 @@
         <v>464</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1436</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>1437</v>
+        <v>1415</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>1416</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1438</v>
+        <v>1417</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>2112</v>
+        <v>2106</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>2112</v>
+        <v>2106</v>
       </c>
       <c r="AS101" s="2"/>
       <c r="AT101" s="2"/>
@@ -95356,19 +95351,19 @@
         <v>464</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="AS102" s="2"/>
       <c r="AT102" s="2"/>
@@ -95379,19 +95374,19 @@
         <v>464</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1372</v>
+        <v>1422</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1373</v>
+        <v>1423</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1374</v>
+        <v>1424</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>2095</v>
+        <v>2108</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>2095</v>
+        <v>2108</v>
       </c>
       <c r="AS103" s="2"/>
       <c r="AT103" s="2"/>
@@ -95402,19 +95397,19 @@
         <v>464</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1308</v>
+        <v>1425</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1309</v>
+        <v>1426</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1310</v>
+        <v>1427</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>2084</v>
+        <v>2109</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>2084</v>
+        <v>2109</v>
       </c>
       <c r="AS104" s="2"/>
       <c r="AT104" s="2"/>
@@ -95425,19 +95420,19 @@
         <v>464</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1366</v>
+        <v>1428</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1367</v>
+        <v>1177</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1310</v>
+        <v>1429</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>2084</v>
+        <v>2110</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>2084</v>
+        <v>2110</v>
       </c>
       <c r="AS105" s="2"/>
       <c r="AT105" s="2"/>
@@ -95448,19 +95443,16 @@
         <v>464</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1359</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>1360</v>
+        <v>1430</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1361</v>
+        <v>1431</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>2092</v>
+        <v>1885</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>2092</v>
+        <v>1885</v>
       </c>
       <c r="AS106" s="2"/>
       <c r="AT106" s="2"/>
@@ -95471,19 +95463,19 @@
         <v>464</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1419</v>
+        <v>1433</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1420</v>
+        <v>1434</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1421</v>
+        <v>1435</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>2107</v>
+        <v>2111</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>2107</v>
+        <v>2111</v>
       </c>
       <c r="AS107" s="2"/>
       <c r="AT107" s="2"/>
@@ -95494,19 +95486,19 @@
         <v>464</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1400</v>
+        <v>1436</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1401</v>
+        <v>1437</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1402</v>
+        <v>1438</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>2102</v>
+        <v>2112</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>2102</v>
+        <v>2112</v>
       </c>
       <c r="AS108" s="2"/>
       <c r="AT108" s="2"/>
@@ -95517,19 +95509,22 @@
         <v>464</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1393</v>
+        <v>1439</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>1440</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1394</v>
+        <v>1441</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>1395</v>
+        <v>1442</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>2100</v>
+        <v>2113</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>2100</v>
+        <v>2113</v>
       </c>
       <c r="AS109" s="2"/>
       <c r="AT109" s="2"/>
@@ -95540,19 +95535,19 @@
         <v>464</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1379</v>
+        <v>1443</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>1380</v>
+        <v>1444</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1381</v>
+        <v>1445</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>2097</v>
+        <v>2114</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>2097</v>
+        <v>2114</v>
       </c>
       <c r="AS110" s="2"/>
       <c r="AT110" s="2"/>
@@ -95563,19 +95558,19 @@
         <v>464</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1226</v>
+        <v>1446</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1227</v>
+        <v>1434</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1228</v>
+        <v>1447</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>2058</v>
+        <v>2115</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>2058</v>
+        <v>2115</v>
       </c>
       <c r="AS111" s="2"/>
       <c r="AT111" s="2"/>
@@ -95586,19 +95581,19 @@
         <v>464</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1302</v>
+        <v>1448</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>1303</v>
+        <v>1449</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1228</v>
+        <v>1450</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>2058</v>
+        <v>2116</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>2058</v>
+        <v>2116</v>
       </c>
       <c r="AS112" s="2"/>
       <c r="AT112" s="2"/>
@@ -95609,19 +95604,19 @@
         <v>464</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>1320</v>
+        <v>1451</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>1452</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>1228</v>
+        <v>1314</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>2058</v>
+        <v>2085</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>2058</v>
+        <v>2085</v>
       </c>
       <c r="AS113" s="2"/>
       <c r="AT113" s="2"/>
@@ -95632,22 +95627,19 @@
         <v>464</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>1327</v>
+        <v>1453</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1328</v>
+        <v>1454</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1228</v>
+        <v>1455</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>2058</v>
+        <v>2117</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>2058</v>
+        <v>2117</v>
       </c>
       <c r="AS114" s="2"/>
       <c r="AT114" s="2"/>
@@ -95655,19 +95647,22 @@
     </row>
     <row r="115" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>1002</v>
+        <v>464</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1762</v>
+        <v>1457</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>1458</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>1228</v>
+        <v>1459</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>2058</v>
+        <v>2118</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>2058</v>
+        <v>2118</v>
       </c>
       <c r="AS115" s="2"/>
       <c r="AT115" s="2"/>
@@ -95678,19 +95673,19 @@
         <v>464</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1209</v>
+        <v>1461</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1210</v>
+        <v>1462</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1211</v>
+        <v>1463</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>2052</v>
+        <v>2119</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>2052</v>
+        <v>2119</v>
       </c>
       <c r="AS116" s="2"/>
       <c r="AT116" s="2"/>
@@ -95701,19 +95696,19 @@
         <v>464</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1206</v>
+        <v>1465</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1207</v>
+        <v>1466</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1208</v>
+        <v>1467</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>2051</v>
+        <v>2120</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>2051</v>
+        <v>2120</v>
       </c>
       <c r="AS117" s="2"/>
       <c r="AT117" s="2"/>
@@ -95724,19 +95719,19 @@
         <v>464</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1202</v>
+        <v>1469</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1174</v>
+        <v>1470</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1203</v>
+        <v>1471</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>2049</v>
+        <v>2121</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>2049</v>
+        <v>2121</v>
       </c>
       <c r="AS118" s="2"/>
       <c r="AT118" s="2"/>
@@ -95747,19 +95742,16 @@
         <v>464</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>1174</v>
+        <v>1473</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1225</v>
+        <v>1474</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>2057</v>
+        <v>2122</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>2057</v>
+        <v>2122</v>
       </c>
       <c r="AS119" s="2"/>
       <c r="AT119" s="2"/>
@@ -95770,19 +95762,16 @@
         <v>464</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>1222</v>
+        <v>1476</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1223</v>
+        <v>1477</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>2056</v>
+        <v>2123</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>2056</v>
+        <v>2123</v>
       </c>
       <c r="AS120" s="2"/>
       <c r="AT120" s="2"/>
@@ -95793,19 +95782,16 @@
         <v>464</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>1219</v>
+        <v>1479</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>1220</v>
+        <v>1480</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>2055</v>
+        <v>2124</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>2055</v>
+        <v>2124</v>
       </c>
       <c r="AS121" s="2"/>
       <c r="AT121" s="2"/>
@@ -95816,19 +95802,16 @@
         <v>464</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>1213</v>
+        <v>1484</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1214</v>
+        <v>1485</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>2053</v>
+        <v>2125</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>2053</v>
+        <v>2125</v>
       </c>
       <c r="AS122" s="2"/>
       <c r="AT122" s="2"/>
@@ -95839,19 +95822,16 @@
         <v>464</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>1170</v>
+        <v>1487</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>1195</v>
+        <v>1488</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>2046</v>
+        <v>2126</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>2046</v>
+        <v>2126</v>
       </c>
       <c r="AS123" s="2"/>
       <c r="AT123" s="2"/>
@@ -95862,19 +95842,16 @@
         <v>464</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>1180</v>
+        <v>1490</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1181</v>
+        <v>1491</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>2040</v>
+        <v>2127</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>2040</v>
+        <v>2127</v>
       </c>
       <c r="AS124" s="2"/>
       <c r="AT124" s="2"/>
@@ -95885,19 +95862,16 @@
         <v>464</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>1177</v>
+        <v>1493</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1178</v>
+        <v>1494</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>2039</v>
+        <v>2128</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>2039</v>
+        <v>2128</v>
       </c>
       <c r="AS125" s="2"/>
       <c r="AT125" s="2"/>
@@ -95908,19 +95882,16 @@
         <v>464</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>1174</v>
+        <v>1497</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>1175</v>
+        <v>1498</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>2038</v>
+        <v>2129</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>2038</v>
+        <v>2129</v>
       </c>
       <c r="AS126" s="2"/>
       <c r="AT126" s="2"/>
@@ -95931,19 +95902,19 @@
         <v>464</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>1177</v>
+        <v>1500</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>1501</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1191</v>
+        <v>1314</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>2044</v>
+        <v>2085</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>2044</v>
+        <v>2085</v>
       </c>
       <c r="AS127" s="2"/>
       <c r="AT127" s="2"/>
@@ -95954,19 +95925,19 @@
         <v>464</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1187</v>
+        <v>1504</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1188</v>
+        <v>1505</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>1189</v>
+        <v>1506</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>2043</v>
+        <v>2130</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>2043</v>
+        <v>2130</v>
       </c>
       <c r="AS128" s="2"/>
       <c r="AT128" s="2"/>
@@ -95977,19 +95948,19 @@
         <v>464</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1184</v>
+        <v>1509</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1185</v>
+        <v>1505</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1186</v>
+        <v>1510</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>2042</v>
+        <v>2131</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>2042</v>
+        <v>2131</v>
       </c>
       <c r="AS129" s="2"/>
       <c r="AT129" s="2"/>
@@ -96000,19 +95971,19 @@
         <v>464</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1182</v>
+        <v>1511</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1174</v>
+        <v>1512</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1183</v>
+        <v>1513</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>2041</v>
+        <v>2132</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>2041</v>
+        <v>2132</v>
       </c>
       <c r="AS130" s="2"/>
       <c r="AT130" s="2"/>
@@ -96023,19 +95994,16 @@
         <v>464</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>1170</v>
+        <v>1515</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1171</v>
+        <v>1516</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>2037</v>
+        <v>2133</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>2037</v>
+        <v>2133</v>
       </c>
       <c r="AS131" s="2"/>
       <c r="AT131" s="2"/>
@@ -96046,19 +96014,16 @@
         <v>464</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>1216</v>
+        <v>1518</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1217</v>
+        <v>1519</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>2054</v>
+        <v>2134</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>2054</v>
+        <v>2134</v>
       </c>
       <c r="AS132" s="2"/>
       <c r="AT132" s="2"/>
@@ -96069,19 +96034,16 @@
         <v>464</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>1177</v>
+        <v>1521</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1234</v>
+        <v>1522</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>2060</v>
+        <v>2135</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>2060</v>
+        <v>2135</v>
       </c>
       <c r="AS133" s="2"/>
       <c r="AT133" s="2"/>
@@ -96092,19 +96054,16 @@
         <v>464</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1305</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>1306</v>
+        <v>1524</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>1234</v>
+        <v>1525</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>2060</v>
+        <v>2136</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>2060</v>
+        <v>2136</v>
       </c>
       <c r="AS134" s="2"/>
       <c r="AT134" s="2"/>
@@ -96115,19 +96074,16 @@
         <v>464</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>1174</v>
+        <v>1528</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1236</v>
+        <v>1529</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>2061</v>
+        <v>2137</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>2061</v>
+        <v>2137</v>
       </c>
       <c r="AS135" s="2"/>
       <c r="AT135" s="2"/>
@@ -96138,16 +96094,16 @@
         <v>464</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1329</v>
+        <v>1531</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1236</v>
+        <v>1532</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>2061</v>
+        <v>2138</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>2061</v>
+        <v>2138</v>
       </c>
       <c r="AS136" s="2"/>
       <c r="AT136" s="2"/>
@@ -96158,19 +96114,16 @@
         <v>464</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>1177</v>
+        <v>1533</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1193</v>
+        <v>1534</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>2045</v>
+        <v>2139</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>2045</v>
+        <v>2139</v>
       </c>
       <c r="AS137" s="2"/>
       <c r="AT137" s="2"/>
@@ -96181,19 +96134,19 @@
         <v>464</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1196</v>
+        <v>1535</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1197</v>
+        <v>1536</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1198</v>
+        <v>1537</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>2047</v>
+        <v>2140</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>2047</v>
+        <v>2140</v>
       </c>
       <c r="AS138" s="2"/>
       <c r="AT138" s="2"/>
@@ -96204,19 +96157,19 @@
         <v>464</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1199</v>
+        <v>1538</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>1200</v>
+        <v>1539</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1201</v>
+        <v>1540</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>2048</v>
+        <v>2141</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>2048</v>
+        <v>2141</v>
       </c>
       <c r="AS139" s="2"/>
       <c r="AT139" s="2"/>
@@ -96227,19 +96180,19 @@
         <v>464</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1204</v>
+        <v>1541</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1174</v>
+        <v>1542</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1205</v>
+        <v>1543</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>2050</v>
+        <v>2142</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>2050</v>
+        <v>2142</v>
       </c>
       <c r="AS140" s="2"/>
       <c r="AT140" s="2"/>
@@ -96250,19 +96203,19 @@
         <v>464</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1237</v>
+        <v>1544</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1238</v>
+        <v>1545</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1239</v>
+        <v>1546</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>2062</v>
+        <v>2143</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>2062</v>
+        <v>2143</v>
       </c>
       <c r="AS141" s="2"/>
       <c r="AT141" s="2"/>
@@ -96273,16 +96226,19 @@
         <v>464</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1332</v>
+        <v>1547</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>1548</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1333</v>
+        <v>1549</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>2087</v>
+        <v>2144</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>2087</v>
+        <v>2144</v>
       </c>
       <c r="AS142" s="2"/>
       <c r="AT142" s="2"/>
@@ -96290,22 +96246,22 @@
     </row>
     <row r="143" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>1002</v>
+        <v>464</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1673</v>
+        <v>1552</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1674</v>
+        <v>1553</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1675</v>
+        <v>1554</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>2170</v>
+        <v>2145</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>2170</v>
+        <v>2145</v>
       </c>
       <c r="AS143" s="2"/>
       <c r="AT143" s="2"/>
@@ -96316,19 +96272,19 @@
         <v>464</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1243</v>
+        <v>1555</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1244</v>
+        <v>1556</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1245</v>
+        <v>1557</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>2064</v>
+        <v>2146</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>2064</v>
+        <v>2146</v>
       </c>
       <c r="AS144" s="2"/>
       <c r="AT144" s="2"/>
@@ -96336,22 +96292,22 @@
     </row>
     <row r="145" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>464</v>
+        <v>663</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1296</v>
+        <v>1559</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>1297</v>
+        <v>1560</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1298</v>
+        <v>1561</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>2082</v>
+        <v>2147</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>2082</v>
+        <v>2147</v>
       </c>
       <c r="AN145" s="2"/>
       <c r="AO145" s="2"/>
@@ -96359,22 +96315,22 @@
     </row>
     <row r="146" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>464</v>
+        <v>663</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1316</v>
+        <v>1563</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1317</v>
+        <v>1564</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1298</v>
+        <v>1565</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>2082</v>
+        <v>2148</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>2082</v>
+        <v>2148</v>
       </c>
       <c r="AN146" s="2"/>
       <c r="AO146" s="2"/>
@@ -96382,22 +96338,22 @@
     </row>
     <row r="147" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>464</v>
+        <v>663</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1252</v>
+        <v>1566</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1253</v>
+        <v>1567</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>1254</v>
+        <v>1568</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>2067</v>
+        <v>2149</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>2067</v>
+        <v>2149</v>
       </c>
       <c r="AN147" s="2"/>
       <c r="AO147" s="2"/>
@@ -96405,22 +96361,19 @@
     </row>
     <row r="148" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>464</v>
+        <v>663</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>1177</v>
+        <v>1569</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1256</v>
+        <v>1557</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>2068</v>
+        <v>2146</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>2068</v>
+        <v>2146</v>
       </c>
       <c r="AN148" s="2"/>
       <c r="AO148" s="2"/>
@@ -96428,22 +96381,22 @@
     </row>
     <row r="149" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>464</v>
+        <v>663</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1257</v>
+        <v>1570</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1258</v>
+        <v>1571</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1259</v>
+        <v>1572</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>2069</v>
+        <v>2150</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>2069</v>
+        <v>2150</v>
       </c>
       <c r="AN149" s="2"/>
       <c r="AO149" s="2"/>
@@ -96451,22 +96404,22 @@
     </row>
     <row r="150" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>464</v>
+        <v>663</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1290</v>
+        <v>1573</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1291</v>
+        <v>1571</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1292</v>
+        <v>1574</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>2080</v>
+        <v>2151</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>2080</v>
+        <v>2151</v>
       </c>
       <c r="AN150" s="2"/>
       <c r="AO150" s="2"/>
@@ -96474,22 +96427,22 @@
     </row>
     <row r="151" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>464</v>
+        <v>663</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1284</v>
+        <v>1575</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1285</v>
+        <v>1571</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>1286</v>
+        <v>1576</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>2078</v>
+        <v>2152</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>2078</v>
+        <v>2152</v>
       </c>
       <c r="AN151" s="2"/>
       <c r="AO151" s="2"/>
@@ -96497,22 +96450,22 @@
     </row>
     <row r="152" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>464</v>
+        <v>663</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1240</v>
+        <v>1577</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1241</v>
+        <v>1571</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1242</v>
+        <v>1578</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>2063</v>
+        <v>2153</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>2063</v>
+        <v>2153</v>
       </c>
       <c r="AN152" s="2"/>
       <c r="AO152" s="2"/>
@@ -96520,22 +96473,25 @@
     </row>
     <row r="153" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>464</v>
+        <v>793</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1246</v>
+        <v>1579</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>1580</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>1247</v>
+        <v>1581</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1248</v>
+        <v>1582</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>2065</v>
+        <v>1874</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>2065</v>
+        <v>1874</v>
       </c>
       <c r="M153" s="3"/>
       <c r="CK153" s="2"/>
@@ -96546,22 +96502,22 @@
     </row>
     <row r="154" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>464</v>
+        <v>793</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1273</v>
+        <v>1584</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>1274</v>
+        <v>1585</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1275</v>
+        <v>1586</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>2074</v>
+        <v>2154</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>2074</v>
+        <v>2154</v>
       </c>
       <c r="M154" s="3"/>
       <c r="CK154" s="2"/>
@@ -96572,22 +96528,22 @@
     </row>
     <row r="155" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>464</v>
+        <v>793</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1276</v>
+        <v>1589</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>1177</v>
+        <v>1590</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1277</v>
+        <v>1591</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>2075</v>
+        <v>2155</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>2075</v>
+        <v>2155</v>
       </c>
       <c r="M155" s="2"/>
       <c r="CK155" s="2"/>
@@ -96598,22 +96554,22 @@
     </row>
     <row r="156" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>464</v>
+        <v>793</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1278</v>
+        <v>1594</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1279</v>
+        <v>1595</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1280</v>
+        <v>1596</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>2076</v>
+        <v>2156</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>2076</v>
+        <v>2156</v>
       </c>
       <c r="M156" s="2"/>
       <c r="CK156" s="2"/>
@@ -96624,22 +96580,25 @@
     </row>
     <row r="157" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>464</v>
+        <v>793</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1281</v>
+        <v>1597</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>1598</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1282</v>
+        <v>1599</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1283</v>
+        <v>1586</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>2077</v>
+        <v>2154</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>2077</v>
+        <v>2154</v>
       </c>
       <c r="CK157" s="2"/>
       <c r="CL157" s="2"/>
@@ -96648,22 +96607,25 @@
     </row>
     <row r="158" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>1002</v>
+        <v>793</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1710</v>
+        <v>1601</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>1602</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1711</v>
+        <v>1603</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1712</v>
+        <v>1604</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>2180</v>
+        <v>2157</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>2180</v>
+        <v>1878</v>
       </c>
       <c r="M158" s="2"/>
       <c r="CK158" s="2"/>
@@ -96674,22 +96636,22 @@
     </row>
     <row r="159" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>1002</v>
+        <v>793</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1759</v>
+        <v>1607</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>1760</v>
+        <v>1608</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>1761</v>
+        <v>1609</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>2192</v>
+        <v>2158</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>2192</v>
+        <v>2158</v>
       </c>
       <c r="M159" s="3"/>
       <c r="CK159" s="2"/>
@@ -96700,22 +96662,25 @@
     </row>
     <row r="160" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>1002</v>
+        <v>793</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1755</v>
+        <v>1612</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>1613</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>1756</v>
+        <v>1614</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1757</v>
+        <v>1615</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>2191</v>
+        <v>1877</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>2191</v>
+        <v>1877</v>
       </c>
       <c r="M160" s="2"/>
       <c r="CK160" s="2"/>
@@ -96726,22 +96691,25 @@
     </row>
     <row r="161" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>1002</v>
+        <v>793</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1691</v>
+        <v>1617</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>1618</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1692</v>
+        <v>1619</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1693</v>
+        <v>1620</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>2175</v>
+        <v>2159</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>2175</v>
+        <v>2204</v>
       </c>
       <c r="M161" s="3"/>
       <c r="AE161" s="3"/>
@@ -96755,22 +96723,22 @@
     </row>
     <row r="162" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>663</v>
+        <v>793</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1575</v>
+        <v>1623</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1571</v>
+        <v>1624</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1576</v>
+        <v>1625</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>2152</v>
+        <v>2160</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>2152</v>
+        <v>2160</v>
       </c>
       <c r="CK162" s="2"/>
       <c r="CL162" s="2"/>
@@ -96779,22 +96747,22 @@
     </row>
     <row r="163" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>1801</v>
+        <v>793</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1804</v>
+        <v>1629</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1805</v>
+        <v>1136</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1576</v>
+        <v>1630</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>2152</v>
+        <v>2161</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>2152</v>
+        <v>2160</v>
       </c>
       <c r="CK163" s="2"/>
       <c r="CL163" s="2"/>
@@ -96803,22 +96771,22 @@
     </row>
     <row r="164" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>663</v>
+        <v>793</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1577</v>
+        <v>1632</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1571</v>
+        <v>1633</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1578</v>
+        <v>1634</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>2153</v>
+        <v>2162</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>2153</v>
+        <v>2205</v>
       </c>
       <c r="CK164" s="2"/>
       <c r="CL164" s="2"/>
@@ -96827,22 +96795,25 @@
     </row>
     <row r="165" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>1801</v>
+        <v>793</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1802</v>
+        <v>1637</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>1638</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1803</v>
+        <v>1639</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1578</v>
+        <v>1640</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>2153</v>
+        <v>2163</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>2153</v>
+        <v>2164</v>
       </c>
       <c r="M165" s="2"/>
       <c r="CK165" s="2"/>
@@ -96853,22 +96824,22 @@
     </row>
     <row r="166" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>663</v>
+        <v>793</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1573</v>
+        <v>1641</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1571</v>
+        <v>1642</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1574</v>
+        <v>1643</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>2151</v>
+        <v>2164</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>2151</v>
+        <v>2164</v>
       </c>
       <c r="CK166" s="2"/>
       <c r="CL166" s="2"/>
@@ -96877,22 +96848,25 @@
     </row>
     <row r="167" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>1801</v>
+        <v>793</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1806</v>
+        <v>1645</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>1646</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1807</v>
+        <v>1644</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1574</v>
+        <v>1643</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>2151</v>
+        <v>2164</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>2151</v>
+        <v>2164</v>
       </c>
       <c r="CK167" s="2"/>
       <c r="CL167" s="2"/>
@@ -96901,22 +96875,22 @@
     </row>
     <row r="168" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>663</v>
+        <v>793</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1570</v>
+        <v>1647</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1571</v>
+        <v>1648</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>1572</v>
+        <v>1649</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>2150</v>
+        <v>2165</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>2150</v>
+        <v>2206</v>
       </c>
       <c r="CK168" s="2"/>
       <c r="CL168" s="2"/>
@@ -96925,22 +96899,22 @@
     </row>
     <row r="169" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>1801</v>
+        <v>793</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1808</v>
+        <v>1651</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1809</v>
+        <v>1652</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1572</v>
+        <v>1653</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>2150</v>
+        <v>2166</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>2150</v>
+        <v>1879</v>
       </c>
       <c r="M169" s="2"/>
       <c r="CK169" s="2"/>
@@ -96951,19 +96925,22 @@
     </row>
     <row r="170" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>464</v>
+        <v>793</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1287</v>
+        <v>1656</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>1657</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>1288</v>
+        <v>1658</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>2079</v>
+        <v>2167</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>2079</v>
+        <v>2207</v>
       </c>
       <c r="M170" s="2"/>
       <c r="CK170" s="2"/>
@@ -96974,19 +96951,22 @@
     </row>
     <row r="171" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>464</v>
+        <v>793</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1249</v>
+        <v>1661</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>1662</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>1250</v>
+        <v>1663</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>2066</v>
+        <v>2168</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>2066</v>
+        <v>2208</v>
       </c>
       <c r="M171" s="2"/>
       <c r="CK171" s="2"/>
@@ -96997,19 +96977,22 @@
     </row>
     <row r="172" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>464</v>
+        <v>793</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1293</v>
+        <v>1665</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>1633</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>1294</v>
+        <v>1658</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>2081</v>
+        <v>2167</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>2081</v>
+        <v>2207</v>
       </c>
       <c r="CK172" s="2"/>
       <c r="CL172" s="2"/>
@@ -97018,19 +97001,22 @@
     </row>
     <row r="173" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>464</v>
+        <v>793</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1299</v>
+        <v>1667</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>1648</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>1300</v>
+        <v>1653</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>2083</v>
+        <v>2166</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>2083</v>
+        <v>1879</v>
       </c>
       <c r="CK173" s="2"/>
       <c r="CL173" s="2"/>
@@ -97062,22 +97048,22 @@
     </row>
     <row r="175" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>464</v>
+        <v>1002</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1229</v>
+        <v>1673</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1230</v>
+        <v>1674</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>1231</v>
+        <v>1675</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>2059</v>
+        <v>2170</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>2059</v>
+        <v>2170</v>
       </c>
       <c r="AX175" s="2"/>
       <c r="AY175" s="2"/>
@@ -97108,19 +97094,22 @@
     </row>
     <row r="177" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>464</v>
+        <v>1002</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1271</v>
+        <v>1680</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>1681</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1272</v>
+        <v>1682</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>2073</v>
+        <v>2172</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>2073</v>
+        <v>2172</v>
       </c>
       <c r="AX177" s="2"/>
       <c r="AY177" s="2"/>
@@ -97128,19 +97117,22 @@
     </row>
     <row r="178" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>464</v>
+        <v>1002</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1269</v>
+        <v>1684</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>1685</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>1270</v>
+        <v>1686</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>2072</v>
+        <v>2173</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>2072</v>
+        <v>2173</v>
       </c>
       <c r="AX178" s="2"/>
       <c r="AY178" s="2"/>
@@ -97148,22 +97140,22 @@
     </row>
     <row r="179" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>464</v>
+        <v>1002</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1354</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>1355</v>
+        <v>1688</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>1689</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>1356</v>
+        <v>1690</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>2091</v>
+        <v>2174</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>2091</v>
+        <v>2174</v>
       </c>
       <c r="AX179" s="2"/>
       <c r="AY179" s="2"/>
@@ -97171,22 +97163,22 @@
     </row>
     <row r="180" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>464</v>
+        <v>1002</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>1376</v>
+        <v>1691</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>1692</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>1377</v>
+        <v>1693</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>2096</v>
+        <v>2175</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>2096</v>
+        <v>2175</v>
       </c>
       <c r="AX180" s="2"/>
       <c r="AY180" s="2"/>
@@ -97194,22 +97186,22 @@
     </row>
     <row r="181" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>464</v>
+        <v>1002</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>1404</v>
+        <v>1694</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>1695</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>1405</v>
+        <v>1696</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>2103</v>
+        <v>2176</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>2103</v>
+        <v>2176</v>
       </c>
       <c r="AX181" s="2"/>
       <c r="AY181" s="2"/>
@@ -97217,22 +97209,22 @@
     </row>
     <row r="182" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>464</v>
+        <v>1002</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>1369</v>
+        <v>1698</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>1699</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>1370</v>
+        <v>1700</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>2094</v>
+        <v>2177</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>2094</v>
+        <v>2177</v>
       </c>
       <c r="AX182" s="2"/>
       <c r="AY182" s="2"/>
@@ -97240,22 +97232,22 @@
     </row>
     <row r="183" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>464</v>
+        <v>1002</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>1408</v>
+        <v>1702</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>1703</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>1409</v>
+        <v>1704</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>2104</v>
+        <v>2178</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>2104</v>
+        <v>2178</v>
       </c>
       <c r="AX183" s="2"/>
       <c r="AY183" s="2"/>
@@ -97263,22 +97255,22 @@
     </row>
     <row r="184" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>464</v>
+        <v>1002</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>1337</v>
+        <v>1707</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>1708</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>1338</v>
+        <v>1709</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>2088</v>
+        <v>2179</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>2088</v>
+        <v>2179</v>
       </c>
       <c r="AX184" s="2"/>
       <c r="AY184" s="2"/>
@@ -97286,25 +97278,22 @@
     </row>
     <row r="185" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>464</v>
+        <v>1002</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>1346</v>
+        <v>1710</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1347</v>
+        <v>1711</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>1338</v>
+        <v>1712</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>2088</v>
+        <v>2180</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>2088</v>
+        <v>2180</v>
       </c>
       <c r="AX185" s="2"/>
       <c r="AY185" s="2"/>
@@ -97312,19 +97301,22 @@
     </row>
     <row r="186" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>464</v>
+        <v>1002</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1387</v>
+        <v>1714</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>1715</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>1388</v>
+        <v>1716</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>2099</v>
+        <v>2181</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>2099</v>
+        <v>2181</v>
       </c>
       <c r="AX186" s="2"/>
       <c r="AY186" s="2"/>
@@ -97332,22 +97324,22 @@
     </row>
     <row r="187" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>464</v>
+        <v>1002</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>1397</v>
+        <v>1718</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>1719</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>1398</v>
+        <v>1720</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>2101</v>
+        <v>2182</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>2101</v>
+        <v>2182</v>
       </c>
       <c r="AX187" s="2"/>
       <c r="AY187" s="2"/>
@@ -97355,22 +97347,22 @@
     </row>
     <row r="188" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>464</v>
+        <v>1002</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>1416</v>
+        <v>1722</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>1417</v>
+        <v>1724</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>2106</v>
+        <v>2183</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>2106</v>
+        <v>2183</v>
       </c>
       <c r="AX188" s="2"/>
       <c r="AY188" s="2"/>
@@ -97378,25 +97370,22 @@
     </row>
     <row r="189" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>464</v>
+        <v>1002</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>1350</v>
+        <v>1726</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1351</v>
+        <v>1727</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1352</v>
+        <v>1728</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>2090</v>
+        <v>2184</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>2090</v>
+        <v>2184</v>
       </c>
       <c r="AX189" s="2"/>
       <c r="AY189" s="2"/>
@@ -97404,22 +97393,22 @@
     </row>
     <row r="190" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>464</v>
+        <v>1002</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>1391</v>
+        <v>1729</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>1730</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>1352</v>
+        <v>1731</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>2090</v>
+        <v>2185</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>2090</v>
+        <v>2185</v>
       </c>
       <c r="AX190" s="2"/>
       <c r="AY190" s="2"/>
@@ -97430,19 +97419,19 @@
         <v>1002</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1702</v>
+        <v>1732</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>1703</v>
+        <v>1733</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>1704</v>
+        <v>1734</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>2178</v>
+        <v>2186</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>2178</v>
+        <v>2186</v>
       </c>
       <c r="AX191" s="2"/>
       <c r="AY191" s="2"/>
@@ -97450,22 +97439,25 @@
     </row>
     <row r="192" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>464</v>
+        <v>1002</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1341</v>
+        <v>1736</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1342</v>
+        <v>1737</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>1738</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>1343</v>
+        <v>1739</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>2089</v>
+        <v>2187</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>2089</v>
+        <v>2187</v>
       </c>
       <c r="AX192" s="2"/>
       <c r="AY192" s="2"/>
@@ -97476,19 +97468,22 @@
         <v>1002</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1707</v>
+        <v>1740</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>1741</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>1708</v>
+        <v>1742</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>1709</v>
+        <v>1383</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>2179</v>
+        <v>2098</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>2179</v>
+        <v>2098</v>
       </c>
       <c r="AX193" s="2"/>
       <c r="AY193" s="2"/>
@@ -97499,19 +97494,19 @@
         <v>1002</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1753</v>
+        <v>1744</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>1754</v>
+        <v>1745</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>1709</v>
+        <v>1746</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>2179</v>
+        <v>2188</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>2179</v>
+        <v>2188</v>
       </c>
       <c r="AX194" s="2"/>
       <c r="AY194" s="2"/>
@@ -97522,19 +97517,19 @@
         <v>1002</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1698</v>
+        <v>1747</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>1699</v>
+        <v>1748</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>1700</v>
+        <v>1749</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>2177</v>
+        <v>2189</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>2177</v>
+        <v>2189</v>
       </c>
       <c r="AX195" s="2"/>
       <c r="AY195" s="2"/>
@@ -97545,19 +97540,19 @@
         <v>1002</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1775</v>
+        <v>1750</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>1776</v>
+        <v>1751</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>1777</v>
+        <v>1752</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>2195</v>
+        <v>2190</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>2195</v>
+        <v>2190</v>
       </c>
       <c r="AX196" s="2"/>
       <c r="AY196" s="2"/>
@@ -97568,19 +97563,19 @@
         <v>1002</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1694</v>
+        <v>1753</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1695</v>
+        <v>1754</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>1696</v>
+        <v>1709</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>2176</v>
+        <v>2179</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>2176</v>
+        <v>2179</v>
       </c>
       <c r="AX197" s="2"/>
       <c r="AY197" s="2"/>
@@ -97588,22 +97583,22 @@
     </row>
     <row r="198" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>464</v>
+        <v>1002</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1469</v>
+        <v>1755</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1470</v>
+        <v>1756</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>1471</v>
+        <v>1757</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>2121</v>
+        <v>2191</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>2121</v>
+        <v>2191</v>
       </c>
       <c r="AX198" s="2"/>
       <c r="AY198" s="2"/>
@@ -97614,19 +97609,19 @@
         <v>1002</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1688</v>
+        <v>1759</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1689</v>
+        <v>1760</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>1690</v>
+        <v>1761</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>2174</v>
+        <v>2192</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>2174</v>
+        <v>2192</v>
       </c>
       <c r="AX199" s="2"/>
       <c r="AY199" s="2"/>
@@ -97637,19 +97632,16 @@
         <v>1002</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1684</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>1685</v>
+        <v>1762</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1686</v>
+        <v>1228</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>2173</v>
+        <v>2058</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>2173</v>
+        <v>2058</v>
       </c>
       <c r="AX200" s="2"/>
       <c r="AY200" s="2"/>
@@ -97657,22 +97649,22 @@
     </row>
     <row r="201" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>663</v>
+        <v>1002</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1559</v>
+        <v>1764</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>1560</v>
+        <v>1765</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>1561</v>
+        <v>1766</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>2147</v>
+        <v>2193</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>2147</v>
+        <v>2193</v>
       </c>
       <c r="AX201" s="2"/>
       <c r="AY201" s="2"/>
@@ -97683,19 +97675,19 @@
         <v>1002</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1780</v>
+        <v>1768</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>1781</v>
+        <v>1769</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>1782</v>
+        <v>1770</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
       <c r="AX202" s="2"/>
       <c r="AY202" s="2"/>
@@ -97703,19 +97695,22 @@
     </row>
     <row r="203" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>464</v>
+        <v>1002</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1531</v>
+        <v>1771</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>1080</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1532</v>
+        <v>1772</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>2138</v>
+        <v>1988</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>2138</v>
+        <v>1988</v>
       </c>
       <c r="AX203" s="2"/>
       <c r="AY203" s="2"/>
@@ -97723,19 +97718,22 @@
     </row>
     <row r="204" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>464</v>
+        <v>1002</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1533</v>
+        <v>1774</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>1080</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1534</v>
+        <v>1772</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>2139</v>
+        <v>1988</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>2139</v>
+        <v>1988</v>
       </c>
       <c r="AX204" s="2"/>
       <c r="AY204" s="2"/>
@@ -97743,22 +97741,22 @@
     </row>
     <row r="205" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>464</v>
+        <v>1002</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1535</v>
+        <v>1775</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1536</v>
+        <v>1776</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>1537</v>
+        <v>1777</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>2140</v>
+        <v>2195</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>2140</v>
+        <v>2195</v>
       </c>
       <c r="AX205" s="2"/>
       <c r="AY205" s="2"/>
@@ -97766,22 +97764,19 @@
     </row>
     <row r="206" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>464</v>
+        <v>1002</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>1363</v>
+        <v>1778</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>1364</v>
+        <v>1779</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>2093</v>
+        <v>2196</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>2093</v>
+        <v>2196</v>
       </c>
       <c r="AX206" s="2"/>
       <c r="AY206" s="2"/>
@@ -97789,22 +97784,22 @@
     </row>
     <row r="207" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>464</v>
+        <v>1002</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>1412</v>
+        <v>1780</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>1781</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>1413</v>
+        <v>1782</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>2105</v>
+        <v>2197</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>2105</v>
+        <v>2197</v>
       </c>
       <c r="AX207" s="2"/>
       <c r="AY207" s="2"/>
@@ -97812,22 +97807,22 @@
     </row>
     <row r="208" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>464</v>
+        <v>1801</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1453</v>
+        <v>1802</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1454</v>
+        <v>1803</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1455</v>
+        <v>1578</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>2117</v>
+        <v>2153</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>2117</v>
+        <v>2153</v>
       </c>
       <c r="Z208" s="2"/>
       <c r="AA208" s="2"/>
@@ -97835,22 +97830,22 @@
     </row>
     <row r="209" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>464</v>
+        <v>1801</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1457</v>
+        <v>1804</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1458</v>
+        <v>1805</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>1459</v>
+        <v>1576</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>2118</v>
+        <v>2152</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>2118</v>
+        <v>2152</v>
       </c>
       <c r="Z209" s="2"/>
       <c r="AA209" s="2"/>
@@ -97858,22 +97853,22 @@
     </row>
     <row r="210" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>464</v>
+        <v>1801</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1461</v>
+        <v>1806</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1462</v>
+        <v>1807</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>1463</v>
+        <v>1574</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>2119</v>
+        <v>2151</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>2119</v>
+        <v>2151</v>
       </c>
       <c r="Z210" s="2"/>
       <c r="AA210" s="2"/>
@@ -97881,22 +97876,22 @@
     </row>
     <row r="211" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>464</v>
+        <v>1801</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1465</v>
+        <v>1808</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>1466</v>
+        <v>1809</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1467</v>
+        <v>1572</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>2120</v>
+        <v>2150</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>2120</v>
+        <v>2150</v>
       </c>
       <c r="Z211" s="2"/>
       <c r="AA211" s="2"/>
